--- a/DCFLCBIT/Result/score.xlsx
+++ b/DCFLCBIT/Result/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\DCFLCBIT\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C38C455-DB5A-4235-8337-BBBFFDAA24DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA19B311-BEB8-49E1-8CA9-1DF89DA657DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="0" activeTab="0" xr2:uid="{CB3D4C3B-3B56-4B59-BA10-18841333DF70}"/>
   </x:bookViews>
@@ -478,7 +478,7 @@
   <x:dimension ref="A1:M11"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E15" sqref="E15 E15:E15"/>
+      <x:selection activeCell="I11" sqref="I11 I11:I11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -683,7 +683,6 @@
       <x:c r="B11" s="4" t="s"/>
       <x:c r="C11" s="4" t="s"/>
     </x:row>
-    <x:row r="15" spans="1:13"/>
   </x:sheetData>
   <x:phoneticPr fontId="1" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
